--- a/DSA/Questions/Questions.xlsx
+++ b/DSA/Questions/Questions.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\Notes\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\Notes\DSA\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F483CE-739D-4D9D-9CFC-D63B09913543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A437C01-7C9D-4575-B4E4-0B815D14D2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Interview Questions</t>
   </si>
@@ -61,6 +70,33 @@
   </si>
   <si>
     <t>Hard</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Book allocation Problem</t>
+  </si>
+  <si>
+    <t>Painters Partition Problem</t>
+  </si>
+  <si>
+    <t>Eko Spoj</t>
+  </si>
+  <si>
+    <t>Cooking Ninjas</t>
+  </si>
+  <si>
+    <t>Reverse an Array</t>
+  </si>
+  <si>
+    <t>Merge Two sorted Arrays</t>
+  </si>
+  <si>
+    <t>Move zeros to end</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
   </si>
 </sst>
 </file>
@@ -111,11 +147,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -127,6 +160,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -412,364 +449,376 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
     <col min="2" max="2" width="4.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
-    <col min="4" max="4" width="7" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="7" style="3" customWidth="1"/>
     <col min="5" max="5" width="41.81640625" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B21" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="2">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="2">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="2">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="2">
-        <v>20</v>
-      </c>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="2">
-        <v>21</v>
-      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="2">
-        <v>22</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="2">
-        <v>23</v>
-      </c>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="2">
-        <v>24</v>
-      </c>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="2">
-        <v>25</v>
-      </c>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="2">
-        <v>26</v>
-      </c>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="2">
-        <v>27</v>
-      </c>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="2">
-        <v>28</v>
-      </c>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="2">
-        <v>29</v>
-      </c>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="2">
-        <v>30</v>
-      </c>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="2">
-        <v>31</v>
-      </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="2">
-        <v>32</v>
-      </c>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="2">
-        <v>33</v>
-      </c>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="2">
-        <v>34</v>
-      </c>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="2">
-        <v>35</v>
-      </c>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="2">
-        <v>36</v>
-      </c>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="2">
-        <v>37</v>
-      </c>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="2">
-        <v>38</v>
-      </c>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="2">
-        <v>39</v>
-      </c>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="2">
-        <v>40</v>
-      </c>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="2">
-        <v>41</v>
-      </c>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="2">
-        <v>42</v>
-      </c>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="2">
-        <v>43</v>
-      </c>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="2">
-        <v>44</v>
-      </c>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="2">
-        <v>45</v>
-      </c>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="2">
-        <v>46</v>
-      </c>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="2">
-        <v>47</v>
-      </c>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="2">
-        <v>48</v>
-      </c>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="2">
-        <v>49</v>
-      </c>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="2">
-        <v>50</v>
-      </c>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="2">
-        <v>51</v>
-      </c>
+      <c r="B53" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D4:D17">
-    <sortCondition ref="D4:D17" customList="Easy,Mid,Hard"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D10">
+    <sortCondition ref="D3:D10" customList="Easy,Mid,Hard"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{A3B43424-A11E-40A2-9579-F06D84361D9D}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{E5EE889D-CE92-49ED-8727-0E5312C3D80A}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{91EA729A-9E18-4E08-98C0-533EC9CBA2A5}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{2E291B39-439B-4897-B277-BA7F20ABFE30}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{D54749B6-8FF8-4645-ADEC-1E636FBB4F30}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{30F6BE9E-51BD-4AD7-8DB9-200C53836DD8}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{A3C9F006-1C45-4B80-B2F1-03FD609B5F41}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{F866A71C-DB93-4427-B9FF-7C443E3460C8}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{67539599-F4D2-48FC-866C-18A9826E033B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA/Questions/Questions.xlsx
+++ b/DSA/Questions/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\Notes\DSA\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A437C01-7C9D-4575-B4E4-0B815D14D2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CACDF58-7676-46D2-9F20-5C7578E7065D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Interview Questions</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Mid</t>
   </si>
   <si>
-    <t>Hard</t>
-  </si>
-  <si>
     <t>Binary Search</t>
   </si>
   <si>
@@ -97,6 +94,54 @@
   </si>
   <si>
     <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>reverse-integer</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>find-unique</t>
+  </si>
+  <si>
+    <t>unique-number-of-occurrences</t>
+  </si>
+  <si>
+    <t>duplicate-in-array</t>
+  </si>
+  <si>
+    <t>pair-sum</t>
+  </si>
+  <si>
+    <t>reverse-string</t>
+  </si>
+  <si>
+    <t>check-if-the-string-is-a-palindrome</t>
+  </si>
+  <si>
+    <t>valid-palindrome</t>
+  </si>
+  <si>
+    <t>reverse-words-in-a-string-ii</t>
+  </si>
+  <si>
+    <t>maximum-occuring-character</t>
+  </si>
+  <si>
+    <t>replace-spaces</t>
+  </si>
+  <si>
+    <t>remove-all-occurrences-of-a-substring</t>
+  </si>
+  <si>
+    <t>string-compression</t>
+  </si>
+  <si>
+    <t>permutation-in-string</t>
+  </si>
+  <si>
+    <t>remove-all-adjacent-duplicates-in-string</t>
   </si>
 </sst>
 </file>
@@ -448,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="157" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,7 +555,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B21" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B53" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -528,14 +573,14 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -543,14 +588,14 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -558,14 +603,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
@@ -573,14 +618,14 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
@@ -595,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -610,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
@@ -625,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
@@ -640,167 +685,329 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="1"/>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="1"/>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="1"/>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="1"/>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="1"/>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="1"/>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="1"/>
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="1"/>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="1"/>
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="1"/>
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="1"/>
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="1"/>
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="1"/>
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="1"/>
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="1"/>
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D10">
@@ -819,6 +1026,21 @@
     <hyperlink ref="C11" r:id="rId7" xr:uid="{A3C9F006-1C45-4B80-B2F1-03FD609B5F41}"/>
     <hyperlink ref="C12" r:id="rId8" xr:uid="{F866A71C-DB93-4427-B9FF-7C443E3460C8}"/>
     <hyperlink ref="C13" r:id="rId9" xr:uid="{67539599-F4D2-48FC-866C-18A9826E033B}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{BA30A198-8337-4C2A-87AF-BC7BF44A4B86}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{ECA8F902-A37E-4BAE-A290-9491CF6EE431}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{B2CCBB1B-1B0A-47A4-A7D3-7391E945B3DB}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{C6BB7FC9-7EDD-4F58-BC76-6CF6DCF89166}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{5DA8D245-77F2-43C0-B42B-ADD6AD92C9B2}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{AAACA145-AC69-43F1-A798-8D3474BB44A9}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{ED277AA0-67ED-4E82-B72E-EE32EFB72DDA}"/>
+    <hyperlink ref="C21" r:id="rId17" xr:uid="{838B9A66-4399-4080-8425-E7FE6251F2A0}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{2D2C01C2-BF75-4DF7-8B08-E71AA2C92719}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{A17E0E2C-079F-4C68-8972-B6340432B170}"/>
+    <hyperlink ref="C24" r:id="rId20" xr:uid="{A68AD6CE-C685-42C8-A12C-73F3337C81A4}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{B39F2753-4F64-4BEF-BE8C-20E495F6040D}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{89687CC8-813E-406A-AD8B-8DA4EBD30B6A}"/>
+    <hyperlink ref="C27" r:id="rId23" xr:uid="{92D0EA71-E596-4951-B723-39CCB116DAA1}"/>
+    <hyperlink ref="C28" r:id="rId24" xr:uid="{FAFEC95A-25B7-45AD-9273-7D8D5D44E31E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
